--- a/testdata/Surgeries.xlsx
+++ b/testdata/Surgeries.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="48">
   <si>
     <t>Dr. B. Ramesh</t>
   </si>
